--- a/Analyzed/try8/data_2012.xlsx
+++ b/Analyzed/try8/data_2012.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>59.01000000000001</v>
       </c>
       <c r="J2">
-        <v>460.4</v>
+        <v>599.41206</v>
       </c>
       <c r="K2">
         <v>960.597</v>
       </c>
       <c r="L2">
-        <v>478.17</v>
+        <v>641.3995</v>
       </c>
       <c r="M2">
         <v>58.99502841987441</v>
@@ -558,49 +583,64 @@
         <v>-77.86</v>
       </c>
       <c r="P2">
-        <v>448.3935306814589</v>
+        <v>584.6587570132964</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>6</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>7</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>4</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>40.67</v>
       </c>
       <c r="J3">
-        <v>427.2</v>
+        <v>499.50116</v>
       </c>
       <c r="K3">
         <v>1443.125</v>
       </c>
       <c r="L3">
-        <v>432.18</v>
+        <v>517.10785</v>
       </c>
       <c r="M3">
         <v>73.37976601094493</v>
@@ -652,49 +692,64 @@
         <v>-122.85</v>
       </c>
       <c r="P3">
-        <v>325.5248793312281</v>
+        <v>422.6677595703136</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3">
         <v>6</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>6</v>
       </c>
-      <c r="AD3">
-        <v>3</v>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <v>5</v>
+      </c>
+      <c r="AH3">
+        <v>4</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>32.69</v>
       </c>
       <c r="J4">
-        <v>377.4</v>
+        <v>303.87417</v>
       </c>
       <c r="K4">
         <v>2030.23</v>
       </c>
       <c r="L4">
-        <v>434.07</v>
+        <v>402.97425</v>
       </c>
       <c r="M4">
         <v>67.10534743044455</v>
@@ -746,49 +801,64 @@
         <v>-106.07</v>
       </c>
       <c r="P4">
-        <v>523.8894456077206</v>
+        <v>689.9273983496286</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
         <v>5</v>
       </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
       <c r="V4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
         <v>4</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>3</v>
-      </c>
       <c r="AC4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>47.66</v>
       </c>
       <c r="J5">
-        <v>411</v>
+        <v>480.10445</v>
       </c>
       <c r="K5">
         <v>1210.321</v>
       </c>
       <c r="L5">
-        <v>448.14</v>
+        <v>582.75735</v>
       </c>
       <c r="M5">
         <v>59.69390492535633</v>
@@ -840,7 +910,7 @@
         <v>-137.01</v>
       </c>
       <c r="P5">
-        <v>505.8098603258533</v>
+        <v>662.1273103989565</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -849,13 +919,13 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -864,25 +934,40 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>40.19</v>
       </c>
       <c r="J6">
-        <v>425</v>
+        <v>456.26909</v>
       </c>
       <c r="K6">
         <v>1860.508</v>
       </c>
       <c r="L6">
-        <v>455.91</v>
+        <v>546.61215</v>
       </c>
       <c r="M6">
         <v>67.25398952352792</v>
@@ -934,48 +1019,63 @@
         <v>-155.31</v>
       </c>
       <c r="P6">
-        <v>451.1801177959218</v>
+        <v>592.5504140581706</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
         <v>1</v>
       </c>
     </row>
@@ -1010,13 +1110,13 @@
         <v>38.98</v>
       </c>
       <c r="J7">
-        <v>443.6</v>
+        <v>552.8157600000001</v>
       </c>
       <c r="K7">
         <v>1477.852</v>
       </c>
       <c r="L7">
-        <v>484.68</v>
+        <v>597.5032</v>
       </c>
       <c r="M7">
         <v>69.99021226862881</v>
@@ -1028,25 +1128,25 @@
         <v>-83.27</v>
       </c>
       <c r="P7">
-        <v>449.7641019691947</v>
+        <v>592.0908956289053</v>
       </c>
       <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>4</v>
       </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>4</v>
@@ -1058,19 +1158,34 @@
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7">
         <v>2</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>3</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>5</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>36.72</v>
       </c>
       <c r="J8">
-        <v>423</v>
+        <v>443.1068100000001</v>
       </c>
       <c r="K8">
         <v>703.769</v>
       </c>
       <c r="L8">
-        <v>473.76</v>
+        <v>526.4811999999999</v>
       </c>
       <c r="M8">
         <v>77.29459687131381</v>
@@ -1122,48 +1237,63 @@
         <v>-160.73</v>
       </c>
       <c r="P8">
-        <v>420.6659186129226</v>
+        <v>549.7650415880269</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
         <v>6</v>
       </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>1</v>
       </c>
       <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>1</v>
       </c>
     </row>
@@ -1198,13 +1328,13 @@
         <v>30.37</v>
       </c>
       <c r="J9">
-        <v>418</v>
+        <v>443.74054</v>
       </c>
       <c r="K9">
         <v>1157.977</v>
       </c>
       <c r="L9">
-        <v>416.64</v>
+        <v>425.27555</v>
       </c>
       <c r="M9">
         <v>70.76821724115386</v>
@@ -1216,32 +1346,32 @@
         <v>-182.76</v>
       </c>
       <c r="P9">
-        <v>406.5246454168421</v>
+        <v>531.2523241413154</v>
       </c>
       <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>5</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
       <c r="Y9">
         <v>0</v>
       </c>
@@ -1258,7 +1388,22 @@
         <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
